--- a/xlsx/翰林院_intext.xlsx
+++ b/xlsx/翰林院_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="631">
   <si>
     <t>翰林院</t>
   </si>
@@ -29,7 +29,7 @@
     <t>康熙</t>
   </si>
   <si>
-    <t>政策_政策_檢討_翰林院</t>
+    <t>政策_政策_检讨_翰林院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E6%9C%9D</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%96%A3</t>
   </si>
   <si>
-    <t>內閣</t>
+    <t>内阁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E7%99%BD</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B5%E5%B1%85%E6%AD%A3</t>
   </si>
   <si>
-    <t>張居正</t>
+    <t>张居正</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BE%E5%9B%BD%E8%97%A9</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E9%B4%BB%E7%AB%A0</t>
   </si>
   <si>
-    <t>李鴻章</t>
+    <t>李鸿章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%92%E5%AE%B6</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%85%E8%A9%94</t>
   </si>
   <si>
-    <t>待詔</t>
+    <t>待诏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E6%AD%A6%E5%B8%9D</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%8C%84</t>
   </si>
   <si>
-    <t>實錄</t>
+    <t>实录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E4%BB%A3%E5%8D%81%E5%9B%BD</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BC%E6%9C%9D</t>
   </si>
   <si>
-    <t>遼朝</t>
+    <t>辽朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A4%8F</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B5%E8%AA%AA</t>
   </si>
   <si>
-    <t>張說</t>
+    <t>张说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%86%E5%9D%9A</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9B%B8%E8%88%8D%E4%BA%BA</t>
   </si>
   <si>
-    <t>中書舍人</t>
+    <t>中书舍人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E5%AE%AA%E5%AE%97</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%8F%B2%E4%B9%8B%E4%BA%82</t>
   </si>
   <si>
-    <t>安史之亂</t>
+    <t>安史之乱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%A9%E9%95%87</t>
@@ -371,9 +371,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%BD%E6%9C%9D</t>
   </si>
   <si>
-    <t>辽朝</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%B8%8A%E9%98%81</t>
   </si>
   <si>
@@ -389,13 +386,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%A8%E4%BF%AE</t>
   </si>
   <si>
-    <t>編修</t>
+    <t>编修</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AA%A2%E8%A8%8E</t>
   </si>
   <si>
-    <t>檢討</t>
+    <t>检讨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E9%A1%BA</t>
@@ -419,7 +416,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%96%E9%9B%A3</t>
   </si>
   <si>
-    <t>靖難</t>
+    <t>靖难</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AF%A1%E4%BD%8D</t>
@@ -443,7 +440,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E4%B8%89%E9%99%A2</t>
   </si>
   <si>
-    <t>內三院</t>
+    <t>内三院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BB%A1%E6%97%8F</t>
@@ -509,13 +506,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E7%B8%A3</t>
   </si>
   <si>
-    <t>知縣</t>
+    <t>知县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%A8%E5%9C%92%E8%A9%A9%E8%A9%B1</t>
   </si>
   <si>
-    <t>隨園詩話</t>
+    <t>随园诗话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A6%BE</t>
@@ -551,13 +548,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E5%B0%8D</t>
   </si>
   <si>
-    <t>校對</t>
+    <t>校对</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E7%B8%89</t>
   </si>
   <si>
-    <t>解縉</t>
+    <t>解缙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E4%B9%90%E5%A4%A7%E5%85%B8</t>
@@ -587,7 +584,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%80%E6%98%80</t>
   </si>
   <si>
-    <t>紀昀</t>
+    <t>纪昀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%86%E9%94%A1%E7%86%8A</t>
@@ -599,13 +596,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%AB%E5%A3%AB%E6%AF%85</t>
   </si>
   <si>
-    <t>孫士毅</t>
+    <t>孙士毅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%BD%E5%AE%9A%E5%9B%9B%E5%BA%AB%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>欽定四庫全書</t>
+    <t>钦定四库全书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AD%90%E7%9B%91</t>
@@ -623,19 +620,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%A5%AD</t>
   </si>
   <si>
-    <t>司業</t>
+    <t>司业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E6%A9%9F%E8%99%95</t>
   </si>
   <si>
-    <t>軍機處</t>
+    <t>军机处</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%97%E7%8D%84</t>
   </si>
   <si>
-    <t>文字獄</t>
+    <t>文字狱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E7%9C%9F%E6%97%8F</t>
@@ -653,13 +650,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%88%E8%91%86%E6%A5%A8</t>
   </si>
   <si>
-    <t>沈葆楨</t>
+    <t>沈葆桢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%A1%E5%85%83%E5%9F%B9</t>
@@ -683,7 +680,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>國民政府</t>
+    <t>国民政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%AD%E5%BB%B6%E9%97%BF</t>
@@ -701,13 +698,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BD%98%E9%BD%A1%E7%9A%8B</t>
   </si>
   <si>
-    <t>潘齡皋</t>
+    <t>潘龄皋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%85%E4%BB%A5%E6%BC%B8</t>
   </si>
   <si>
-    <t>傅以漸</t>
+    <t>傅以渐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%85%E6%96%AF%E5%B9%B4</t>
@@ -731,13 +728,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B5%E4%BD%A9%E7%B6%B8</t>
   </si>
   <si>
-    <t>張佩綸</t>
+    <t>张佩纶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B5%E6%84%9B%E7%8E%B2</t>
   </si>
   <si>
-    <t>張愛玲</t>
+    <t>张爱玲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E7%A6%8F%E6%B8%85</t>
@@ -803,13 +800,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%99%E6%96%87%E6%A5%B7</t>
   </si>
   <si>
-    <t>趙文楷</t>
+    <t>赵文楷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%99%E6%A8%B8%E5%88%9D</t>
   </si>
   <si>
-    <t>趙樸初</t>
+    <t>赵朴初</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E5%AE%A4%E6%AF%93%E9%9A%86</t>
@@ -833,7 +830,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E5%AF%B6%E7%90%9B</t>
   </si>
   <si>
-    <t>陳寶琛</t>
+    <t>陈宝琛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%88%E5%B2%B1%E5%AD%99</t>
@@ -863,7 +860,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E5%B9%B4%E8%99%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>越南年號列表</t>
+    <t>越南年号列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E6%9C%9D_(%E8%B6%8A%E5%8D%97)</t>
@@ -881,7 +878,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E5%85%A7%E5%B8%82</t>
   </si>
   <si>
-    <t>河內市</t>
+    <t>河内市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%A6</t>
@@ -893,7 +890,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E6%9C%9D_(%E8%B6%8A%E5%8D%97)</t>
   </si>
   <si>
-    <t>陳朝 (越南)</t>
+    <t>陈朝 (越南)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E6%9C%9D</t>
@@ -905,7 +902,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E8%81%96%E5%AE%97</t>
   </si>
   <si>
-    <t>陳聖宗</t>
+    <t>陈圣宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E6%96%87%E4%BC%91</t>
@@ -917,7 +914,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B5%E9%83%A8%E5%B0%9A%E6%9B%B8</t>
   </si>
   <si>
-    <t>兵部尚書</t>
+    <t>兵部尚书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD</t>
@@ -929,7 +926,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E9%BB%8E%E6%9C%9D</t>
   </si>
   <si>
-    <t>後黎朝</t>
+    <t>后黎朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%AE%E6%9C%9D</t>
@@ -947,19 +944,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%AA%9E</t>
   </si>
   <si>
-    <t>越南語</t>
+    <t>越南语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%AF%AD</t>
   </si>
   <si>
-    <t>越南语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E7%A7%91%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>俄羅斯科學院</t>
+    <t>俄罗斯科学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E5%8E%86%E5%8F%B2</t>
@@ -971,7 +965,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%BA%97</t>
   </si>
   <si>
-    <t>高麗</t>
+    <t>高丽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E4%B8%BD%E5%A4%AA%E7%A5%96</t>
@@ -983,25 +977,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E9%AB%98%E5%8F%A5%E9%BA%97</t>
   </si>
   <si>
-    <t>後高句麗</t>
+    <t>后高句丽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%AF%E5%AE%97</t>
   </si>
   <si>
-    <t>顯宗</t>
+    <t>显宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A3%E5%92%8C%E5%A5%89%E4%BD%BF%E9%AB%98%E9%BA%97%E5%9C%96%E7%B6%93</t>
   </si>
   <si>
-    <t>宣和奉使高麗圖經</t>
+    <t>宣和奉使高丽图经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%BA%97%E6%81%AD%E6%84%8D%E7%8E%8B</t>
   </si>
   <si>
-    <t>高麗恭愍王</t>
+    <t>高丽恭愍王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E8%B4%A1%E4%BD%93%E7%B3%BB</t>
@@ -1013,13 +1007,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E5%9D%87%E9%A4%A8</t>
   </si>
   <si>
-    <t>成均館</t>
+    <t>成均馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%BA%97%E5%BF%A0%E7%83%88%E7%8E%8B</t>
   </si>
   <si>
-    <t>高麗忠烈王</t>
+    <t>高丽忠烈王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E4%B8%BD%E5%BF%A0%E8%82%83%E7%8E%8B</t>
@@ -1031,13 +1025,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>朝鮮王朝</t>
+    <t>朝鲜王朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E7%8F%AD</t>
   </si>
   <si>
-    <t>兩班</t>
+    <t>两班</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%BF%E6%94%BF%E9%99%A2</t>
@@ -1049,7 +1043,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%AE%E6%9B%B9</t>
   </si>
   <si>
-    <t>禮曹</t>
+    <t>礼曹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -1061,7 +1055,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8B%99%E7%9C%81</t>
   </si>
   <si>
-    <t>中務省</t>
+    <t>中务省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%8C%E5%AE%98</t>
@@ -1079,7 +1073,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%94%90%E6%9C%9D%E6%AD%B7%E5%8F%B2%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>Template talk-唐朝歷史事件</t>
+    <t>Template talk-唐朝历史事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%8B%E9%98%B3%E8%B5%B7%E5%85%B5</t>
@@ -1109,7 +1103,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%84%E6%AD%A6%E9%96%80%E4%B9%8B%E8%AE%8A</t>
   </si>
   <si>
-    <t>玄武門之變</t>
+    <t>玄武门之变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AD%E6%B0%B4%E4%B9%8B%E7%9B%9F</t>
@@ -1121,7 +1115,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E6%BB%85%E4%B8%9C%E3%80%81%E8%A5%BF%E7%AA%81%E5%8E%A5%E4%B9%8B%E6%88%B0</t>
   </si>
   <si>
-    <t>唐滅东、西突厥之戰</t>
+    <t>唐灭东、西突厥之战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%81%AD%E8%96%9B%E5%BB%B6%E9%99%80%E4%B9%8B%E6%88%98</t>
@@ -1139,13 +1133,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9E%E8%A7%80%E4%B9%8B%E6%B2%BB</t>
   </si>
   <si>
-    <t>貞觀之治</t>
+    <t>贞观之治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9E%E8%A7%80%E5%BE%8B</t>
   </si>
   <si>
-    <t>貞觀律</t>
+    <t>贞观律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%AD%E9%99%B5%E5%85%AD%E9%AA%8F</t>
@@ -1157,13 +1151,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E5%85%AB%E5%AD%B8%E5%A3%AB</t>
   </si>
   <si>
-    <t>十八學士</t>
+    <t>十八学士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%8C%E7%85%99%E9%96%A3%E4%BA%8C%E5%8D%81%E5%9B%9B%E5%8A%9F%E8%87%A3</t>
   </si>
   <si>
-    <t>凌煙閣二十四功臣</t>
+    <t>凌烟阁二十四功臣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%84%E5%A5%98</t>
@@ -1181,19 +1175,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%9F%E5%BA%B8%E8%AA%BF%E5%88%B6</t>
   </si>
   <si>
-    <t>租庸調制</t>
+    <t>租庸调制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93_(%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83)</t>
   </si>
   <si>
-    <t>道 (行政區劃)</t>
+    <t>道 (行政区划)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E8%AD%B7%E5%BA%9C</t>
   </si>
   <si>
-    <t>都護府</t>
+    <t>都护府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%81%E7%B8%BB</t>
@@ -1205,7 +1199,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B5%E5%85%B5%E5%88%B6</t>
   </si>
   <si>
-    <t>徵兵制</t>
+    <t>征兵制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%BF%E8%B0%8B%E6%9D%9C%E6%96%AD</t>
@@ -1259,7 +1253,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E6%B1%9F%E5%8F%A3%E4%B9%8B%E6%88%B0</t>
   </si>
   <si>
-    <t>白江口之戰</t>
+    <t>白江口之战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E5%A4%AA%E5%AE%97%E5%BE%81%E8%AE%A8%E9%AB%98%E5%8F%A5%E4%B8%BD</t>
@@ -1283,7 +1277,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E5%89%87%E5%A4%A9</t>
   </si>
   <si>
-    <t>武則天</t>
+    <t>武则天</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E9%95%BF%E5%AE%89%E5%9F%8E</t>
@@ -1325,7 +1319,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E6%95%AC%E6%A5%AD</t>
   </si>
   <si>
-    <t>李敬業</t>
+    <t>李敬业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E5%91%A8%E4%B9%8B%E6%B2%BB</t>
@@ -1343,7 +1337,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A4%E6%B5%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>渤海國</t>
+    <t>渤海国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E9%BE%99%E9%9D%A9%E5%91%BD</t>
@@ -1355,7 +1349,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E8%88%89</t>
   </si>
   <si>
-    <t>武舉</t>
+    <t>武举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E7%AA%81%E5%8E%A5%E6%B1%97%E5%9B%BD</t>
@@ -1379,31 +1373,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E4%BF%8A%E4%B9%8B%E8%AE%8A</t>
   </si>
   <si>
-    <t>重俊之變</t>
+    <t>重俊之变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E9%9A%86%E4%B9%8B%E8%AE%8A</t>
   </si>
   <si>
-    <t>唐隆之變</t>
+    <t>唐隆之变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E5%A4%A9%E4%B9%8B%E8%AE%8A</t>
   </si>
   <si>
-    <t>先天之變</t>
+    <t>先天之变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E5%85%83%E4%B9%8B%E6%B2%BB</t>
   </si>
   <si>
-    <t>開元之治</t>
+    <t>开元之治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E5%BA%A6%E4%BD%BF</t>
   </si>
   <si>
-    <t>節度使</t>
+    <t>节度使</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9F%E5%85%B5%E5%88%B6_(%E5%94%90%E6%9C%9D)</t>
@@ -1421,13 +1415,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%8A%E5%9C%8B%E5%BF%A0</t>
   </si>
   <si>
-    <t>楊國忠</t>
+    <t>杨国忠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%9B%E7%BE%85%E6%96%AF%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>怛羅斯戰役</t>
+    <t>怛罗斯战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%B7%E8%AE%A8%E5%A4%A7%E9%A3%9F%E8%A1%A8</t>
@@ -1451,7 +1445,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%A9%E9%8E%AE%E5%89%B2%E6%93%9A</t>
   </si>
   <si>
-    <t>藩鎮割據</t>
+    <t>藩镇割据</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E6%9C%9D%E4%B8%8E%E5%90%90%E8%95%83%E7%9A%84%E6%88%98%E4%BA%89</t>
@@ -1475,7 +1469,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E7%A8%85%E6%B3%95</t>
   </si>
   <si>
-    <t>兩稅法</t>
+    <t>两税法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E4%B8%8A%E4%B8%9D%E7%BB%B8%E4%B9%8B%E8%B7%AF</t>
@@ -1505,7 +1499,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%B6%BC%E5%8A%AB%E7%9B%9F</t>
   </si>
   <si>
-    <t>平涼劫盟</t>
+    <t>平凉劫盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9E%E5%85%83%E4%B9%8B%E7%9B%9F</t>
@@ -1517,13 +1511,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E6%9C%94%E4%B8%89%E9%8E%AE</t>
   </si>
   <si>
-    <t>河朔三鎮</t>
+    <t>河朔三镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E5%AE%A6%E5%AE%98%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>第二次宦官時代</t>
+    <t>第二次宦官时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E8%B4%9E%E9%9D%A9%E6%96%B0</t>
@@ -1535,37 +1529,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E8%B2%9E%E5%85%A7%E7%A6%AA</t>
   </si>
   <si>
-    <t>永貞內禪</t>
+    <t>永贞内禅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E5%92%8C%E4%B8%AD%E8%88%88</t>
   </si>
   <si>
-    <t>元和中興</t>
+    <t>元和中兴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E9%9C%B2%E4%B9%8B%E8%AE%8A</t>
   </si>
   <si>
-    <t>甘露之變</t>
+    <t>甘露之变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%9D%8E%E9%BB%A8%E7%88%AD</t>
   </si>
   <si>
-    <t>牛李黨爭</t>
+    <t>牛李党争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E6%98%8C%E6%AF%80%E4%BD%9B</t>
   </si>
   <si>
-    <t>會昌毀佛</t>
+    <t>会昌毁佛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E6%98%8C%E4%B8%AD%E8%88%88</t>
   </si>
   <si>
-    <t>會昌中興</t>
+    <t>会昌中兴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%AD%E4%B9%8B%E6%B2%BB</t>
@@ -1589,31 +1583,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E6%9C%AB%E6%B0%91%E8%AE%8A</t>
   </si>
   <si>
-    <t>唐末民變</t>
+    <t>唐末民变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%90%E5%8B%9B%E4%B9%8B%E8%AE%8A</t>
   </si>
   <si>
-    <t>龐勛之變</t>
+    <t>庞勋之变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E5%B7%A2%E4%B9%8B%E4%BA%82</t>
   </si>
   <si>
-    <t>黃巢之亂</t>
+    <t>黄巢之乱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%A6%AC%E4%B9%8B%E7%A6%8D</t>
   </si>
   <si>
-    <t>白馬之禍</t>
+    <t>白马之祸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E6%9C%9D%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>唐朝經濟</t>
+    <t>唐朝经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E6%9C%9D%E6%96%87%E5%8C%96</t>
@@ -1631,7 +1625,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%AD%B7%E5%8F%B2%E4%BA%8B%E4%BB%B6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>中國歷史事件列表</t>
+    <t>中国历史事件列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1643,7 +1637,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%9C%9D%E4%B8%AD%E5%A4%AE%E5%9C%8B%E5%AE%B6%E6%A9%9F%E9%97%9C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>清朝中央國家機關列表</t>
+    <t>清朝中央国家机关列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%9C%9D%E5%86%85%E9%98%81</t>
@@ -1733,13 +1727,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%8B%99%E5%BA%9C</t>
   </si>
   <si>
-    <t>內務府</t>
+    <t>内务府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E8%A1%99%E9%96%80</t>
   </si>
   <si>
-    <t>十三衙門</t>
+    <t>十三衙门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E4%BA%8B%E5%BA%9C</t>
@@ -1775,7 +1769,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%86%AB%E9%99%A2</t>
   </si>
   <si>
-    <t>太醫院</t>
+    <t>太医院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%9C%AB%E6%96%B0%E6%94%BF</t>
@@ -1787,13 +1781,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%9C%9D%E5%85%A7%E9%96%A3%E7%B8%BD%E7%90%86%E5%A4%A7%E8%87%A3</t>
   </si>
   <si>
-    <t>清朝內閣總理大臣</t>
+    <t>清朝内阁总理大臣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%8B%99%E9%83%A8</t>
   </si>
   <si>
-    <t>外務部</t>
+    <t>外务部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%94%BF%E9%83%A8_(%E6%B8%85%E6%9C%9D)</t>
@@ -1811,19 +1805,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E9%83%A8_(%E6%B8%85%E6%9C%9D)</t>
   </si>
   <si>
-    <t>學部 (清朝)</t>
+    <t>学部 (清朝)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B8%E8%BB%8D%E9%83%A8_(%E6%B8%85%E6%9C%9D)</t>
   </si>
   <si>
-    <t>陸軍部 (清朝)</t>
+    <t>陆军部 (清朝)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%BB%8D%E9%83%A8_(%E6%B8%85%E6%9C%9D)</t>
   </si>
   <si>
-    <t>海軍部 (清朝)</t>
+    <t>海军部 (清朝)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E9%83%A8</t>
@@ -1835,13 +1829,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E5%B7%A5%E5%95%86%E9%83%A8</t>
   </si>
   <si>
-    <t>農工商部</t>
+    <t>农工商部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%B5%E5%82%B3%E9%83%A8</t>
   </si>
   <si>
-    <t>郵傳部</t>
+    <t>邮传部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E8%97%A9%E9%83%A8</t>
@@ -1889,7 +1883,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%95%AD%E4%B8%80%E5%B1%B1</t>
   </si>
   <si>
-    <t>蕭一山</t>
+    <t>萧一山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E4%BB%A3%E9%80%9A%E5%8F%B2</t>
@@ -1901,7 +1895,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -4053,7 +4047,7 @@
         <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -4137,10 +4131,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>118</v>
+      </c>
+      <c r="F65" t="s">
         <v>119</v>
-      </c>
-      <c r="F65" t="s">
-        <v>120</v>
       </c>
       <c r="G65" t="n">
         <v>6</v>
@@ -4166,10 +4160,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>120</v>
+      </c>
+      <c r="F66" t="s">
         <v>121</v>
-      </c>
-      <c r="F66" t="s">
-        <v>122</v>
       </c>
       <c r="G66" t="n">
         <v>7</v>
@@ -4195,10 +4189,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>122</v>
+      </c>
+      <c r="F67" t="s">
         <v>123</v>
-      </c>
-      <c r="F67" t="s">
-        <v>124</v>
       </c>
       <c r="G67" t="n">
         <v>8</v>
@@ -4224,10 +4218,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>124</v>
+      </c>
+      <c r="F68" t="s">
         <v>125</v>
-      </c>
-      <c r="F68" t="s">
-        <v>126</v>
       </c>
       <c r="G68" t="n">
         <v>7</v>
@@ -4253,10 +4247,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>126</v>
+      </c>
+      <c r="F69" t="s">
         <v>127</v>
-      </c>
-      <c r="F69" t="s">
-        <v>128</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -4282,10 +4276,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>128</v>
+      </c>
+      <c r="F70" t="s">
         <v>129</v>
-      </c>
-      <c r="F70" t="s">
-        <v>130</v>
       </c>
       <c r="G70" t="n">
         <v>6</v>
@@ -4311,10 +4305,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>130</v>
+      </c>
+      <c r="F71" t="s">
         <v>131</v>
-      </c>
-      <c r="F71" t="s">
-        <v>132</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -4340,10 +4334,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>132</v>
+      </c>
+      <c r="F72" t="s">
         <v>133</v>
-      </c>
-      <c r="F72" t="s">
-        <v>134</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4369,10 +4363,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>134</v>
+      </c>
+      <c r="F73" t="s">
         <v>135</v>
-      </c>
-      <c r="F73" t="s">
-        <v>136</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4398,10 +4392,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>136</v>
+      </c>
+      <c r="F74" t="s">
         <v>137</v>
-      </c>
-      <c r="F74" t="s">
-        <v>138</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -4427,10 +4421,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>138</v>
+      </c>
+      <c r="F75" t="s">
         <v>139</v>
-      </c>
-      <c r="F75" t="s">
-        <v>140</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -4456,10 +4450,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>140</v>
+      </c>
+      <c r="F76" t="s">
         <v>141</v>
-      </c>
-      <c r="F76" t="s">
-        <v>142</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4485,10 +4479,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>142</v>
+      </c>
+      <c r="F77" t="s">
         <v>143</v>
-      </c>
-      <c r="F77" t="s">
-        <v>144</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4514,10 +4508,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>144</v>
+      </c>
+      <c r="F78" t="s">
         <v>145</v>
-      </c>
-      <c r="F78" t="s">
-        <v>146</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -4543,10 +4537,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>146</v>
+      </c>
+      <c r="F79" t="s">
         <v>147</v>
-      </c>
-      <c r="F79" t="s">
-        <v>148</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4572,10 +4566,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>148</v>
+      </c>
+      <c r="F80" t="s">
         <v>149</v>
-      </c>
-      <c r="F80" t="s">
-        <v>150</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4601,10 +4595,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>150</v>
+      </c>
+      <c r="F81" t="s">
         <v>151</v>
-      </c>
-      <c r="F81" t="s">
-        <v>152</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -4630,10 +4624,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>152</v>
+      </c>
+      <c r="F82" t="s">
         <v>153</v>
-      </c>
-      <c r="F82" t="s">
-        <v>154</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4659,10 +4653,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>154</v>
+      </c>
+      <c r="F83" t="s">
         <v>155</v>
-      </c>
-      <c r="F83" t="s">
-        <v>156</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4688,10 +4682,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>156</v>
+      </c>
+      <c r="F84" t="s">
         <v>157</v>
-      </c>
-      <c r="F84" t="s">
-        <v>158</v>
       </c>
       <c r="G84" t="n">
         <v>6</v>
@@ -4717,10 +4711,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>158</v>
+      </c>
+      <c r="F85" t="s">
         <v>159</v>
-      </c>
-      <c r="F85" t="s">
-        <v>160</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4746,10 +4740,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>160</v>
+      </c>
+      <c r="F86" t="s">
         <v>161</v>
-      </c>
-      <c r="F86" t="s">
-        <v>162</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -4775,10 +4769,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>162</v>
+      </c>
+      <c r="F87" t="s">
         <v>163</v>
-      </c>
-      <c r="F87" t="s">
-        <v>164</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4804,10 +4798,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>164</v>
+      </c>
+      <c r="F88" t="s">
         <v>165</v>
-      </c>
-      <c r="F88" t="s">
-        <v>166</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4833,10 +4827,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>166</v>
+      </c>
+      <c r="F89" t="s">
         <v>167</v>
-      </c>
-      <c r="F89" t="s">
-        <v>168</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4862,10 +4856,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>168</v>
+      </c>
+      <c r="F90" t="s">
         <v>169</v>
-      </c>
-      <c r="F90" t="s">
-        <v>170</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4891,10 +4885,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>170</v>
+      </c>
+      <c r="F91" t="s">
         <v>171</v>
-      </c>
-      <c r="F91" t="s">
-        <v>172</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4920,10 +4914,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>172</v>
+      </c>
+      <c r="F92" t="s">
         <v>173</v>
-      </c>
-      <c r="F92" t="s">
-        <v>174</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4949,10 +4943,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>174</v>
+      </c>
+      <c r="F93" t="s">
         <v>175</v>
-      </c>
-      <c r="F93" t="s">
-        <v>176</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4978,10 +4972,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>176</v>
+      </c>
+      <c r="F94" t="s">
         <v>177</v>
-      </c>
-      <c r="F94" t="s">
-        <v>178</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5007,10 +5001,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>178</v>
+      </c>
+      <c r="F95" t="s">
         <v>179</v>
-      </c>
-      <c r="F95" t="s">
-        <v>180</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5036,10 +5030,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>180</v>
+      </c>
+      <c r="F96" t="s">
         <v>181</v>
-      </c>
-      <c r="F96" t="s">
-        <v>182</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5065,10 +5059,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>180</v>
+      </c>
+      <c r="F97" t="s">
         <v>181</v>
-      </c>
-      <c r="F97" t="s">
-        <v>182</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -5094,10 +5088,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>182</v>
+      </c>
+      <c r="F98" t="s">
         <v>183</v>
-      </c>
-      <c r="F98" t="s">
-        <v>184</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -5123,10 +5117,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>184</v>
+      </c>
+      <c r="F99" t="s">
         <v>185</v>
-      </c>
-      <c r="F99" t="s">
-        <v>186</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -5152,10 +5146,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>184</v>
+      </c>
+      <c r="F100" t="s">
         <v>185</v>
-      </c>
-      <c r="F100" t="s">
-        <v>186</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5181,10 +5175,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>186</v>
+      </c>
+      <c r="F101" t="s">
         <v>187</v>
-      </c>
-      <c r="F101" t="s">
-        <v>188</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -5210,10 +5204,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>188</v>
+      </c>
+      <c r="F102" t="s">
         <v>189</v>
-      </c>
-      <c r="F102" t="s">
-        <v>190</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -5239,10 +5233,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>190</v>
+      </c>
+      <c r="F103" t="s">
         <v>191</v>
-      </c>
-      <c r="F103" t="s">
-        <v>192</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5268,10 +5262,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>192</v>
+      </c>
+      <c r="F104" t="s">
         <v>193</v>
-      </c>
-      <c r="F104" t="s">
-        <v>194</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5297,10 +5291,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>194</v>
+      </c>
+      <c r="F105" t="s">
         <v>195</v>
-      </c>
-      <c r="F105" t="s">
-        <v>196</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -5326,10 +5320,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>196</v>
+      </c>
+      <c r="F106" t="s">
         <v>197</v>
-      </c>
-      <c r="F106" t="s">
-        <v>198</v>
       </c>
       <c r="G106" t="n">
         <v>5</v>
@@ -5355,10 +5349,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>198</v>
+      </c>
+      <c r="F107" t="s">
         <v>199</v>
-      </c>
-      <c r="F107" t="s">
-        <v>200</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5384,10 +5378,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>200</v>
+      </c>
+      <c r="F108" t="s">
         <v>201</v>
-      </c>
-      <c r="F108" t="s">
-        <v>202</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5413,10 +5407,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>202</v>
+      </c>
+      <c r="F109" t="s">
         <v>203</v>
-      </c>
-      <c r="F109" t="s">
-        <v>204</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5442,10 +5436,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>204</v>
+      </c>
+      <c r="F110" t="s">
         <v>205</v>
-      </c>
-      <c r="F110" t="s">
-        <v>206</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5471,10 +5465,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>206</v>
+      </c>
+      <c r="F111" t="s">
         <v>207</v>
-      </c>
-      <c r="F111" t="s">
-        <v>208</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5500,10 +5494,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>208</v>
+      </c>
+      <c r="F112" t="s">
         <v>209</v>
-      </c>
-      <c r="F112" t="s">
-        <v>210</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5529,10 +5523,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>210</v>
+      </c>
+      <c r="F113" t="s">
         <v>211</v>
-      </c>
-      <c r="F113" t="s">
-        <v>212</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5558,10 +5552,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>212</v>
+      </c>
+      <c r="F114" t="s">
         <v>213</v>
-      </c>
-      <c r="F114" t="s">
-        <v>214</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5587,10 +5581,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>214</v>
+      </c>
+      <c r="F115" t="s">
         <v>215</v>
-      </c>
-      <c r="F115" t="s">
-        <v>216</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5616,10 +5610,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>216</v>
+      </c>
+      <c r="F116" t="s">
         <v>217</v>
-      </c>
-      <c r="F116" t="s">
-        <v>218</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5645,10 +5639,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>218</v>
+      </c>
+      <c r="F117" t="s">
         <v>219</v>
-      </c>
-      <c r="F117" t="s">
-        <v>220</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5674,10 +5668,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>220</v>
+      </c>
+      <c r="F118" t="s">
         <v>221</v>
-      </c>
-      <c r="F118" t="s">
-        <v>222</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5703,10 +5697,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>222</v>
+      </c>
+      <c r="F119" t="s">
         <v>223</v>
-      </c>
-      <c r="F119" t="s">
-        <v>224</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -5732,10 +5726,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>224</v>
+      </c>
+      <c r="F120" t="s">
         <v>225</v>
-      </c>
-      <c r="F120" t="s">
-        <v>226</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5761,10 +5755,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>226</v>
+      </c>
+      <c r="F121" t="s">
         <v>227</v>
-      </c>
-      <c r="F121" t="s">
-        <v>228</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5790,10 +5784,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>228</v>
+      </c>
+      <c r="F122" t="s">
         <v>229</v>
-      </c>
-      <c r="F122" t="s">
-        <v>230</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5819,10 +5813,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>230</v>
+      </c>
+      <c r="F123" t="s">
         <v>231</v>
-      </c>
-      <c r="F123" t="s">
-        <v>232</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5848,10 +5842,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>232</v>
+      </c>
+      <c r="F124" t="s">
         <v>233</v>
-      </c>
-      <c r="F124" t="s">
-        <v>234</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5877,10 +5871,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>234</v>
+      </c>
+      <c r="F125" t="s">
         <v>235</v>
-      </c>
-      <c r="F125" t="s">
-        <v>236</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5906,10 +5900,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>236</v>
+      </c>
+      <c r="F126" t="s">
         <v>237</v>
-      </c>
-      <c r="F126" t="s">
-        <v>238</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5935,10 +5929,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>238</v>
+      </c>
+      <c r="F127" t="s">
         <v>239</v>
-      </c>
-      <c r="F127" t="s">
-        <v>240</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5964,10 +5958,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>240</v>
+      </c>
+      <c r="F128" t="s">
         <v>241</v>
-      </c>
-      <c r="F128" t="s">
-        <v>242</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5993,10 +5987,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>242</v>
+      </c>
+      <c r="F129" t="s">
         <v>243</v>
-      </c>
-      <c r="F129" t="s">
-        <v>244</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6022,10 +6016,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>244</v>
+      </c>
+      <c r="F130" t="s">
         <v>245</v>
-      </c>
-      <c r="F130" t="s">
-        <v>246</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6051,10 +6045,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>246</v>
+      </c>
+      <c r="F131" t="s">
         <v>247</v>
-      </c>
-      <c r="F131" t="s">
-        <v>248</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6080,10 +6074,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>248</v>
+      </c>
+      <c r="F132" t="s">
         <v>249</v>
-      </c>
-      <c r="F132" t="s">
-        <v>250</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6109,10 +6103,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>250</v>
+      </c>
+      <c r="F133" t="s">
         <v>251</v>
-      </c>
-      <c r="F133" t="s">
-        <v>252</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6138,10 +6132,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>252</v>
+      </c>
+      <c r="F134" t="s">
         <v>253</v>
-      </c>
-      <c r="F134" t="s">
-        <v>254</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6167,10 +6161,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>254</v>
+      </c>
+      <c r="F135" t="s">
         <v>255</v>
-      </c>
-      <c r="F135" t="s">
-        <v>256</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6196,10 +6190,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>256</v>
+      </c>
+      <c r="F136" t="s">
         <v>257</v>
-      </c>
-      <c r="F136" t="s">
-        <v>258</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6225,10 +6219,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>258</v>
+      </c>
+      <c r="F137" t="s">
         <v>259</v>
-      </c>
-      <c r="F137" t="s">
-        <v>260</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6254,10 +6248,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>260</v>
+      </c>
+      <c r="F138" t="s">
         <v>261</v>
-      </c>
-      <c r="F138" t="s">
-        <v>262</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6283,10 +6277,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>262</v>
+      </c>
+      <c r="F139" t="s">
         <v>263</v>
-      </c>
-      <c r="F139" t="s">
-        <v>264</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6312,10 +6306,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>264</v>
+      </c>
+      <c r="F140" t="s">
         <v>265</v>
-      </c>
-      <c r="F140" t="s">
-        <v>266</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6341,10 +6335,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>266</v>
+      </c>
+      <c r="F141" t="s">
         <v>267</v>
-      </c>
-      <c r="F141" t="s">
-        <v>268</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6370,10 +6364,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>268</v>
+      </c>
+      <c r="F142" t="s">
         <v>269</v>
-      </c>
-      <c r="F142" t="s">
-        <v>270</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6399,10 +6393,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>270</v>
+      </c>
+      <c r="F143" t="s">
         <v>271</v>
-      </c>
-      <c r="F143" t="s">
-        <v>272</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6428,10 +6422,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>272</v>
+      </c>
+      <c r="F144" t="s">
         <v>273</v>
-      </c>
-      <c r="F144" t="s">
-        <v>274</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6457,10 +6451,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>274</v>
+      </c>
+      <c r="F145" t="s">
         <v>275</v>
-      </c>
-      <c r="F145" t="s">
-        <v>276</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -6486,10 +6480,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>276</v>
+      </c>
+      <c r="F146" t="s">
         <v>277</v>
-      </c>
-      <c r="F146" t="s">
-        <v>278</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -6515,10 +6509,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>278</v>
+      </c>
+      <c r="F147" t="s">
         <v>279</v>
-      </c>
-      <c r="F147" t="s">
-        <v>280</v>
       </c>
       <c r="G147" t="n">
         <v>11</v>
@@ -6544,10 +6538,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>280</v>
+      </c>
+      <c r="F148" t="s">
         <v>281</v>
-      </c>
-      <c r="F148" t="s">
-        <v>282</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6573,10 +6567,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>282</v>
+      </c>
+      <c r="F149" t="s">
         <v>283</v>
-      </c>
-      <c r="F149" t="s">
-        <v>284</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6602,10 +6596,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>284</v>
+      </c>
+      <c r="F150" t="s">
         <v>285</v>
-      </c>
-      <c r="F150" t="s">
-        <v>286</v>
       </c>
       <c r="G150" t="n">
         <v>3</v>
@@ -6631,10 +6625,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>280</v>
+      </c>
+      <c r="F151" t="s">
         <v>281</v>
-      </c>
-      <c r="F151" t="s">
-        <v>282</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -6660,10 +6654,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>286</v>
+      </c>
+      <c r="F152" t="s">
         <v>287</v>
-      </c>
-      <c r="F152" t="s">
-        <v>288</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6689,10 +6683,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>286</v>
+      </c>
+      <c r="F153" t="s">
         <v>287</v>
-      </c>
-      <c r="F153" t="s">
-        <v>288</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6718,10 +6712,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>280</v>
+      </c>
+      <c r="F154" t="s">
         <v>281</v>
-      </c>
-      <c r="F154" t="s">
-        <v>282</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6747,10 +6741,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>288</v>
+      </c>
+      <c r="F155" t="s">
         <v>289</v>
-      </c>
-      <c r="F155" t="s">
-        <v>290</v>
       </c>
       <c r="G155" t="n">
         <v>7</v>
@@ -6776,10 +6770,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>290</v>
+      </c>
+      <c r="F156" t="s">
         <v>291</v>
-      </c>
-      <c r="F156" t="s">
-        <v>292</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -6805,10 +6799,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>292</v>
+      </c>
+      <c r="F157" t="s">
         <v>293</v>
-      </c>
-      <c r="F157" t="s">
-        <v>294</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6834,10 +6828,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>294</v>
+      </c>
+      <c r="F158" t="s">
         <v>295</v>
-      </c>
-      <c r="F158" t="s">
-        <v>296</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6863,10 +6857,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>296</v>
+      </c>
+      <c r="F159" t="s">
         <v>297</v>
-      </c>
-      <c r="F159" t="s">
-        <v>298</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6892,10 +6886,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>298</v>
+      </c>
+      <c r="F160" t="s">
         <v>299</v>
-      </c>
-      <c r="F160" t="s">
-        <v>300</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6921,10 +6915,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>300</v>
+      </c>
+      <c r="F161" t="s">
         <v>301</v>
-      </c>
-      <c r="F161" t="s">
-        <v>302</v>
       </c>
       <c r="G161" t="n">
         <v>8</v>
@@ -6950,10 +6944,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>302</v>
+      </c>
+      <c r="F162" t="s">
         <v>303</v>
-      </c>
-      <c r="F162" t="s">
-        <v>304</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6979,10 +6973,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>304</v>
+      </c>
+      <c r="F163" t="s">
         <v>305</v>
-      </c>
-      <c r="F163" t="s">
-        <v>306</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7008,10 +7002,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>306</v>
+      </c>
+      <c r="F164" t="s">
         <v>307</v>
-      </c>
-      <c r="F164" t="s">
-        <v>308</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7037,10 +7031,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>308</v>
+      </c>
+      <c r="F165" t="s">
         <v>309</v>
-      </c>
-      <c r="F165" t="s">
-        <v>310</v>
       </c>
       <c r="G165" t="n">
         <v>4</v>
@@ -7066,10 +7060,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F166" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -7095,10 +7089,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F167" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7124,10 +7118,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F168" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G168" t="n">
         <v>5</v>
@@ -7153,10 +7147,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F169" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7182,10 +7176,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F170" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7211,10 +7205,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F171" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7240,10 +7234,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F172" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7269,10 +7263,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F173" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7327,10 +7321,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F175" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -7356,10 +7350,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F176" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G176" t="n">
         <v>3</v>
@@ -7385,10 +7379,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F177" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7414,10 +7408,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F178" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7443,10 +7437,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F179" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7472,10 +7466,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F180" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7501,10 +7495,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F181" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7530,10 +7524,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F182" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7559,10 +7553,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F183" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7588,10 +7582,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F184" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7617,10 +7611,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F185" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7646,10 +7640,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F186" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G186" t="n">
         <v>5</v>
@@ -7675,10 +7669,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F187" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7704,10 +7698,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F188" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G188" t="n">
         <v>10</v>
@@ -7733,10 +7727,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F189" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7762,10 +7756,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F190" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G190" t="n">
         <v>10</v>
@@ -7791,10 +7785,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F191" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7820,10 +7814,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F192" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7849,10 +7843,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F193" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7878,10 +7872,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F194" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7907,10 +7901,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F195" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7936,10 +7930,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F196" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7965,10 +7959,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F197" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7994,10 +7988,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F198" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8023,10 +8017,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F199" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8052,10 +8046,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F200" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8081,10 +8075,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F201" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8110,10 +8104,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F202" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8139,10 +8133,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F203" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8168,10 +8162,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F204" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8197,10 +8191,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F205" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8226,10 +8220,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F206" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8255,10 +8249,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F207" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8284,10 +8278,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F208" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8313,10 +8307,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F209" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8342,10 +8336,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F210" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8371,10 +8365,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F211" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8400,10 +8394,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F212" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8429,10 +8423,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F213" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8458,10 +8452,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F214" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8487,10 +8481,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F215" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8516,10 +8510,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F216" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8545,10 +8539,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F217" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8574,10 +8568,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F218" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8603,10 +8597,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F219" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8632,10 +8626,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F220" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8661,10 +8655,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F221" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8690,10 +8684,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F222" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8719,10 +8713,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F223" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8806,10 +8800,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F226" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8835,10 +8829,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F227" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8864,10 +8858,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F228" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8893,10 +8887,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F229" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8922,10 +8916,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F230" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8951,10 +8945,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F231" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8980,10 +8974,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F232" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9009,10 +9003,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F233" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9038,10 +9032,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F234" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9067,10 +9061,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F235" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9096,10 +9090,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F236" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9125,10 +9119,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F237" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9154,10 +9148,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F238" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9183,10 +9177,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F239" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9212,10 +9206,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F240" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9241,10 +9235,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F241" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9270,10 +9264,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F242" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9299,10 +9293,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F243" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9328,10 +9322,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F244" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9357,10 +9351,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F245" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9386,10 +9380,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F246" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9415,10 +9409,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F247" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9444,10 +9438,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F248" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G248" t="n">
         <v>13</v>
@@ -9473,10 +9467,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F249" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9531,10 +9525,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F251" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9560,10 +9554,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F252" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9589,10 +9583,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F253" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9618,10 +9612,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F254" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9676,10 +9670,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F256" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9705,10 +9699,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F257" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9734,10 +9728,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F258" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9763,10 +9757,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F259" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9792,10 +9786,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F260" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9821,10 +9815,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F261" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9850,10 +9844,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F262" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9879,10 +9873,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F263" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9908,10 +9902,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F264" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9937,10 +9931,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F265" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9966,10 +9960,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F266" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9995,10 +9989,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F267" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10024,10 +10018,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F268" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10053,10 +10047,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F269" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10082,10 +10076,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F270" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10111,10 +10105,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F271" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10140,10 +10134,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F272" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10169,10 +10163,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F273" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10198,10 +10192,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F274" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10227,10 +10221,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F275" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10256,10 +10250,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F276" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10285,10 +10279,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F277" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10314,10 +10308,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F278" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10343,10 +10337,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F279" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10372,10 +10366,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F280" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10401,10 +10395,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F281" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10430,10 +10424,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F282" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10459,10 +10453,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F283" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10488,10 +10482,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F284" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10517,10 +10511,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F285" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G285" t="n">
         <v>14</v>
@@ -10546,10 +10540,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F286" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G286" t="n">
         <v>3</v>
@@ -10575,10 +10569,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F287" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G287" t="n">
         <v>5</v>
@@ -10604,10 +10598,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
+        <v>212</v>
+      </c>
+      <c r="F288" t="s">
         <v>213</v>
-      </c>
-      <c r="F288" t="s">
-        <v>214</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10633,10 +10627,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F289" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10662,10 +10656,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F290" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10691,10 +10685,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
+        <v>140</v>
+      </c>
+      <c r="F291" t="s">
         <v>141</v>
-      </c>
-      <c r="F291" t="s">
-        <v>142</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10720,10 +10714,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F292" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10749,10 +10743,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
+        <v>202</v>
+      </c>
+      <c r="F293" t="s">
         <v>203</v>
-      </c>
-      <c r="F293" t="s">
-        <v>204</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10778,10 +10772,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F294" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G294" t="n">
         <v>3</v>
@@ -10807,10 +10801,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F295" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G295" t="n">
         <v>4</v>
@@ -10836,10 +10830,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F296" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10865,10 +10859,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F297" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G297" t="n">
         <v>2</v>
@@ -10894,10 +10888,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F298" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G298" t="n">
         <v>2</v>
@@ -10923,10 +10917,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F299" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10952,10 +10946,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F300" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -10981,10 +10975,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F301" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11010,10 +11004,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F302" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11039,10 +11033,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F303" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11068,10 +11062,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F304" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11097,10 +11091,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F305" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G305" t="n">
         <v>2</v>
@@ -11126,10 +11120,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F306" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G306" t="n">
         <v>2</v>
@@ -11155,10 +11149,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F307" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G307" t="n">
         <v>2</v>
@@ -11184,10 +11178,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F308" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11213,10 +11207,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F309" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11242,10 +11236,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F310" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11271,10 +11265,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F311" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G311" t="n">
         <v>2</v>
@@ -11300,10 +11294,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F312" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11329,10 +11323,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F313" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11358,10 +11352,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F314" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11387,10 +11381,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F315" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11416,10 +11410,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F316" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11445,10 +11439,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F317" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11474,10 +11468,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F318" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11503,10 +11497,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F319" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11532,10 +11526,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F320" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11561,10 +11555,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F321" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11590,10 +11584,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F322" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11619,10 +11613,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F323" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11648,10 +11642,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F324" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11677,10 +11671,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F325" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11706,10 +11700,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F326" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11735,10 +11729,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F327" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11764,10 +11758,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F328" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11793,10 +11787,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F329" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -11822,10 +11816,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F330" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -11851,10 +11845,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F331" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -11880,10 +11874,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F332" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -11909,10 +11903,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F333" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -11938,10 +11932,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F334" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -11967,10 +11961,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F335" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -11996,10 +11990,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F336" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12025,10 +12019,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F337" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G337" t="n">
         <v>3</v>
@@ -12054,10 +12048,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F338" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12083,10 +12077,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F339" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
